--- a/hecCalc/2023/documentum/0_Publish/Gate House 물량비교(E-space Revit).xlsx
+++ b/hecCalc/2023/documentum/0_Publish/Gate House 물량비교(E-space Revit).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\0_Publish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5407A7C-0E0F-44F4-9FDC-FB35DD013F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F076F-AF28-481C-8085-68E008062A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-5480" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ View (Working)" sheetId="1" r:id="rId1"/>
@@ -1657,6 +1657,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2499,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2813,7 +2814,7 @@
         <v>376.18</v>
       </c>
       <c r="J12" s="13">
-        <v>305.12</v>
+        <v>354.79300000000001</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -2821,7 +2822,7 @@
       </c>
       <c r="L12" s="45">
         <f t="shared" si="1"/>
-        <v>71.06</v>
+        <v>21.387</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
@@ -3033,7 +3034,7 @@
         <v>305.91000000000003</v>
       </c>
       <c r="J18" s="13">
-        <v>277.98599999999999</v>
+        <v>332.05700000000002</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
@@ -3041,7 +3042,7 @@
       </c>
       <c r="L18" s="45">
         <f t="shared" si="1"/>
-        <v>27.924000000000035</v>
+        <v>-26.146999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3073,7 +3074,7 @@
         <v>70.27</v>
       </c>
       <c r="J19" s="13">
-        <v>27.135000000000002</v>
+        <v>22.736000000000001</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -3081,7 +3082,7 @@
       </c>
       <c r="L19" s="45">
         <f t="shared" si="1"/>
-        <v>43.134999999999991</v>
+        <v>47.533999999999992</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.3">
